--- a/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb153/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D3362E-ED18-9242-A4C4-024EB66E1F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78749B0-9577-1448-96DE-C8C572904990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,13 +502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1"/>
     <col min="3" max="3" width="14" style="2"/>
     <col min="4" max="4" width="16" style="2"/>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2">
         <v>1978107</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78749B0-9577-1448-96DE-C8C572904990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C83CD-531E-E840-876E-9DF6AC70825F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24400" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>1376183</v>
+        <v>376183</v>
       </c>
       <c r="D2" s="2">
         <v>1166239</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>8362</v>
+        <v>83620</v>
       </c>
       <c r="D3" s="2">
         <v>175254</v>
@@ -733,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>1687383</v>
+        <v>687383</v>
       </c>
       <c r="D16" s="2">
         <v>3548606</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="C17" s="4">
         <f>SUM(C2:C15)-C16</f>
-        <v>-75258</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
         <f>SUM(D2:D15)-D16</f>
